--- a/medicine/Enfance/Le_Talisman_des_Voïvodes/Le_Talisman_des_Voïvodes.xlsx
+++ b/medicine/Enfance/Le_Talisman_des_Voïvodes/Le_Talisman_des_Voïvodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Talisman_des_Vo%C3%AFvodes</t>
+          <t>Le_Talisman_des_Voïvodes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Talisman des Voïvodes est le 84e roman de la série Bob Morane, écrit par Henri Vernes et publié en 1967 par les Éditions Gérard et Cie dans la collection Pocket Marabout.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Talisman_des_Vo%C3%AFvodes</t>
+          <t>Le_Talisman_des_Voïvodes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bob Morane et son ami Bill Ballantine côtoient le milieu sombre des Tziganes, en pleine crise depuis l'assassinat de Pedre Zarutti, le roi d'une des tribus, par Zarlowo le Balafré. Celui-ci a voulu se venger d'avoir été exclu du clan et tente également de devenir le nouveau Voïvode des Tziganes. Allié avec un gangster notoire (« le Sicilien »), il a en effet volé tous les insignes ancestraux, empêchant ainsi la jeune Thérésa Zarutti de succéder à son père. Il ne lui manque maintenant plus que l'anneau du dernier Voïvode, qui repose dans le cimetière d'Olomouc en Tchécoslovaquie, pour parvenir à ses fins.
 En attendant, il décide de renflouer le trésor tzigane en cambriolant des bijoux et autres objets précieux dans les demeures des grands collectionneurs. Ces cambriolages ont eu lieu à Rambouillet, Nancy et Strasbourg en France, à Mannheim et à Fürth en Allemagne, et à Plzeň en Tchécoslovaquie. Son itinéraire le rapproche ainsi de Brno, où se trouve le cimetière d'Olomouc, lieu de sépulture du dernier Voïvode.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Talisman_des_Vo%C3%AFvodes</t>
+          <t>Le_Talisman_des_Voïvodes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Au cours de leur périple, Bob et Bill affrontent quelques-uns des personnages les plus monstrueux, physiquement parlant, qu'ils ont rencontrés au cours de leurs aventures. En voici la liste :
 Zarlowo, le chef de la bande, est décrit comme ayant un visage en lame de couteau et des yeux à fleur de tête. Une énorme cicatrice rosâtre lui barre la figure, allant de la tempe droite à la joue gauche en passant par l'orbite et le nez. On ne sait trop comment il se l'est faite, hormis le fait qu'il soit devenu acrobate de cirque après avoir été banni de la tribu tzigane.
